--- a/diaries/diary-ArminHamidi.xlsx
+++ b/diaries/diary-ArminHamidi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Armin\IdeaProjects\W2020\diaries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Armin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2716565-8C18-4462-873E-6729B16D46FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22629BBB-4E68-45D4-A099-5D91FBD69EDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -147,16 +147,157 @@
     <t>Relieved</t>
   </si>
   <si>
-    <t>My team and I</t>
-  </si>
-  <si>
-    <t>Found and documented the first "essential feature" and gained clarity into Cassandra</t>
-  </si>
-  <si>
-    <t>Was worried the time I alloted to the assignment wasn't adequate, everything turned out ok</t>
-  </si>
-  <si>
-    <t>Finish the second assignment, learn more about the Cassandra system</t>
+    <t>Myself, my team</t>
+  </si>
+  <si>
+    <t>Work on the "two features" assignment</t>
+  </si>
+  <si>
+    <t>Gained some understanding of Cassandra, found SQL like queries to better understand certain methods and classes</t>
+  </si>
+  <si>
+    <t>Hit several dead ends, as expected. Some assumptions we made about classes were wrong and now we are more cautious making assumptions</t>
+  </si>
+  <si>
+    <t>Glad we made some solid headway into the assignment</t>
+  </si>
+  <si>
+    <t>5:00PM</t>
+  </si>
+  <si>
+    <t>Myself, the class</t>
+  </si>
+  <si>
+    <t>Learn week 4 lecture</t>
+  </si>
+  <si>
+    <t>Learned a great amount about UML diagrams. Learned some KEP</t>
+  </si>
+  <si>
+    <t>UML was very interesting and could be useful at work. KEP also felt relevant to what I was doing at work</t>
+  </si>
+  <si>
+    <t>Felt good learning about tools and practice I could use throughout the week</t>
+  </si>
+  <si>
+    <t>Finish the week 4 assignment</t>
+  </si>
+  <si>
+    <t>Learned more about Cassandra and focused on some essential features. Gained a pretty clear understanding of how Cassandra grants user privileges.</t>
+  </si>
+  <si>
+    <t>HW was complicate but we felt a little more confident going in because of last weeks HW</t>
+  </si>
+  <si>
+    <t>Relieved we finished the assignment with fairly low overhead and stress</t>
+  </si>
+  <si>
+    <t>Learn week 5 lecture</t>
+  </si>
+  <si>
+    <t>Mental Simulation seemed like such an obvious topic, but I appreciated going through its steps and realizing in an organized matter what we all do when we read code</t>
+  </si>
+  <si>
+    <t>Learned about Mental Simulation and some more KEP. Also gained insight on next week's midterm.</t>
+  </si>
+  <si>
+    <t>Interested in the approach of Mental Simulation. A little nervous about the midterm</t>
+  </si>
+  <si>
+    <t>Midterm!...and week 6 lecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Took the midterm, felt quite confident. </t>
+  </si>
+  <si>
+    <t>Midterm was very straightforward. Glad I took the time to review all the slides and take notes. Frustrated we had to stay for a lecture too</t>
+  </si>
+  <si>
+    <t>Relieved but also frustrated</t>
+  </si>
+  <si>
+    <t>Finish the assignment, key developers and issues</t>
+  </si>
+  <si>
+    <t>Finished a large portion of the assignment</t>
+  </si>
+  <si>
+    <t>Shorter assignment, not too complicated. It was interesting looking into the developers</t>
+  </si>
+  <si>
+    <t>Good!</t>
+  </si>
+  <si>
+    <t>Work on the newest assignment, tasked to write up the social context of our project</t>
+  </si>
+  <si>
+    <t>Finished almost the entire document</t>
+  </si>
+  <si>
+    <t>Cassandra has a lot of documentation and clear instructions for almost every question addressed in the  assignment.</t>
+  </si>
+  <si>
+    <t>Relieved there was so much documentation to write from</t>
+  </si>
+  <si>
+    <t>Learn about design patterns and learn from our guest</t>
+  </si>
+  <si>
+    <t>Learned about design patterns. Also connected with our guest</t>
+  </si>
+  <si>
+    <t>Design patterns seem very practical and useful when coding. I look forward to using them at work. Since I studied Aerospace Eng as an undergrad I felt a personal connection with our guest's story</t>
+  </si>
+  <si>
+    <t>I am the only developer at work in a manufacturing engineering firm. I enjoyed learning from our guest how to be a better developer and how to integrate that in that kind of working environment</t>
+  </si>
+  <si>
+    <t>10:00 AM - 1:00 PM</t>
+  </si>
+  <si>
+    <t>5:00:00 PM - 8:00 PM</t>
+  </si>
+  <si>
+    <t>Find some design patterns in Cassandra</t>
+  </si>
+  <si>
+    <t>Found a "Builder" and  "Factory" pattern in Cassandra. Wrote up some notes about them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finding the code was not too complicated, but explaining and understanding it was quite difficult. It was difficult find how these classes were design patterns from the general definitions online. </t>
+  </si>
+  <si>
+    <t>Glad the homework wasn't too difficult. Worried my write ups are a bit too vague and contain too little information.</t>
+  </si>
+  <si>
+    <t>5:00 PM - 8:00 PM</t>
+  </si>
+  <si>
+    <t>Learn about testing and debugging a system</t>
+  </si>
+  <si>
+    <t>A lot of similarities to Jim's class but the redundancy was nice. Good to learn about testing from a reverse engineering persepective</t>
+  </si>
+  <si>
+    <t>Guests were very fun tonight! I am always fascinated by the power and versatility of software. Feeling confident about the assignment since I did much of the work in Jim's class</t>
+  </si>
+  <si>
+    <t>Guest lecture was very interesting. Lecture was pretty straightforward</t>
+  </si>
+  <si>
+    <t>11:00AM - 4:00 PM</t>
+  </si>
+  <si>
+    <t>Work on the testing homework</t>
+  </si>
+  <si>
+    <t>Finished writing about three test cases and created one new test case</t>
+  </si>
+  <si>
+    <t>Reading test cases really did teach me things about my system that I did not know. However writing a new test case was not as easy as the system I had in Jim's class. I did more extension, partitioning, and test diversity with an existing test case and adapted it to a new one. I hope that will be an fulfill Andre and Kaj's expectations</t>
+  </si>
+  <si>
+    <t>A little exhuasted. There was  a lot of trial and error working on the test cases. But I learned a lot and hopefully writing two more will go by a little easier</t>
   </si>
 </sst>
 </file>
@@ -279,12 +420,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -295,7 +451,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -312,9 +468,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -324,17 +477,32 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="18" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -659,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,24 +837,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -714,7 +882,7 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1"/>
@@ -755,25 +923,25 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -784,19 +952,19 @@
       <c r="B10" s="11">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -804,22 +972,22 @@
       <c r="A11" s="10">
         <v>43846</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="14">
         <v>0.80208333333333337</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -827,1083 +995,1223 @@
       <c r="A12" s="10">
         <v>43846</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="14">
         <v>0.84375</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>43851</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="14">
         <v>0.59027777777777779</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
+      <c r="A14" s="15">
         <v>43853</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="14">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
-        <v>43862</v>
-      </c>
-      <c r="B15" s="12">
+        <v>43856</v>
+      </c>
+      <c r="B15" s="16">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>43860</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>43863</v>
+      </c>
+      <c r="B17" s="16">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
+      <c r="D17" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <v>43866</v>
+      </c>
+      <c r="B18" s="16">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>43874</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>43877</v>
+      </c>
+      <c r="B20" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
+        <v>43884</v>
+      </c>
+      <c r="B21" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <v>43888</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <v>43890</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <v>43895</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="167.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
+        <v>43902</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="8"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="8"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="8"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="8"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="8"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="8"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="8"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="8"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="7"/>
     </row>
     <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="8"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="7"/>
     </row>
     <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="8"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="7"/>
     </row>
     <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="8"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="7"/>
     </row>
     <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="8"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="7"/>
     </row>
     <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="8"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="7"/>
     </row>
     <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="8"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="7"/>
     </row>
     <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="8"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="7"/>
     </row>
     <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="8"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="7"/>
     </row>
     <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="8"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="7"/>
     </row>
     <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="8"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="7"/>
     </row>
     <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="8"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="7"/>
     </row>
     <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="8"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="7"/>
     </row>
     <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="8"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="7"/>
     </row>
     <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="8"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="7"/>
     </row>
     <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="8"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="7"/>
     </row>
     <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="8"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="7"/>
     </row>
     <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="8"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="7"/>
     </row>
     <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="8"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="7"/>
     </row>
     <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="8"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="7"/>
     </row>
     <row r="55" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="8"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="7"/>
     </row>
     <row r="56" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="8"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="7"/>
     </row>
     <row r="57" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="8"/>
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="7"/>
     </row>
     <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="8"/>
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="7"/>
     </row>
     <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="8"/>
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="7"/>
     </row>
     <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="8"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="7"/>
     </row>
     <row r="61" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="8"/>
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="7"/>
     </row>
     <row r="62" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="8"/>
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="7"/>
     </row>
     <row r="63" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="8"/>
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="7"/>
     </row>
     <row r="64" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="8"/>
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="7"/>
     </row>
     <row r="65" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="8"/>
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="7"/>
     </row>
     <row r="66" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="8"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="7"/>
     </row>
     <row r="67" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="8"/>
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="7"/>
     </row>
     <row r="68" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="8"/>
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="7"/>
     </row>
     <row r="69" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="8"/>
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="7"/>
     </row>
     <row r="70" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="8"/>
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="7"/>
     </row>
     <row r="71" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="8"/>
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="7"/>
     </row>
     <row r="72" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="8"/>
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="7"/>
     </row>
     <row r="73" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="8"/>
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="7"/>
     </row>
     <row r="74" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="8"/>
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="7"/>
     </row>
     <row r="75" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="8"/>
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="7"/>
     </row>
     <row r="76" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="8"/>
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="7"/>
     </row>
     <row r="77" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="8"/>
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="7"/>
     </row>
     <row r="78" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="8"/>
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="7"/>
     </row>
     <row r="79" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="8"/>
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="7"/>
     </row>
     <row r="80" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="8"/>
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="7"/>
     </row>
     <row r="81" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="8"/>
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="7"/>
     </row>
     <row r="82" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="8"/>
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="7"/>
     </row>
     <row r="83" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="8"/>
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="7"/>
     </row>
     <row r="84" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="8"/>
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="7"/>
     </row>
     <row r="85" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="8"/>
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="7"/>
     </row>
     <row r="86" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="8"/>
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="7"/>
     </row>
     <row r="87" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="8"/>
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="7"/>
     </row>
     <row r="88" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="8"/>
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="7"/>
     </row>
     <row r="89" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="8"/>
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="7"/>
     </row>
     <row r="90" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="8"/>
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="7"/>
     </row>
     <row r="91" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="8"/>
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="7"/>
     </row>
     <row r="92" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="8"/>
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="7"/>
     </row>
     <row r="93" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="8"/>
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="7"/>
     </row>
     <row r="94" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="8"/>
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="7"/>
     </row>
     <row r="95" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="8"/>
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="7"/>
     </row>
     <row r="96" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="8"/>
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="7"/>
     </row>
     <row r="97" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="8"/>
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="7"/>
     </row>
     <row r="98" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="7"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="8"/>
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="7"/>
     </row>
     <row r="99" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="7"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="8"/>
+      <c r="A99" s="6"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="7"/>
     </row>
     <row r="100" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="7"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="8"/>
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="7"/>
     </row>
     <row r="101" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A101" s="7"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="8"/>
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="7"/>
     </row>
     <row r="102" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A102" s="7"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="8"/>
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="7"/>
     </row>
     <row r="103" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A103" s="7"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="8"/>
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="7"/>
     </row>
     <row r="104" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A104" s="7"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="8"/>
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="7"/>
     </row>
     <row r="105" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="8"/>
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="7"/>
     </row>
     <row r="106" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A106" s="7"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="8"/>
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="7"/>
     </row>
     <row r="107" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="8"/>
+      <c r="A107" s="6"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="7"/>
     </row>
     <row r="108" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="8"/>
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="7"/>
     </row>
     <row r="109" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A109" s="7"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="8"/>
+      <c r="A109" s="6"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="7"/>
     </row>
     <row r="110" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="8"/>
+      <c r="A110" s="6"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="7"/>
     </row>
     <row r="111" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A111" s="7"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="8"/>
+      <c r="A111" s="6"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="7"/>
     </row>
     <row r="112" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="8"/>
+      <c r="A112" s="6"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="7"/>
     </row>
     <row r="113" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="7"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="8"/>
+      <c r="A113" s="6"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="7"/>
     </row>
     <row r="114" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A114" s="7"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="8"/>
+      <c r="A114" s="6"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="7"/>
     </row>
     <row r="115" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A115" s="7"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="8"/>
+      <c r="A115" s="6"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="7"/>
     </row>
     <row r="116" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A116" s="7"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="8"/>
+      <c r="A116" s="6"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="7"/>
     </row>
     <row r="117" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A117" s="7"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="8"/>
+      <c r="A117" s="6"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="7"/>
     </row>
     <row r="118" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A118" s="7"/>
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="8"/>
+      <c r="A118" s="6"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="7"/>
     </row>
     <row r="119" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A119" s="7"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="8"/>
+      <c r="A119" s="6"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="7"/>
     </row>
     <row r="120" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A120" s="7"/>
-      <c r="B120" s="7"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="8"/>
+      <c r="A120" s="6"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="7"/>
     </row>
     <row r="121" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A121" s="7"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="8"/>
+      <c r="A121" s="6"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="7"/>
     </row>
     <row r="122" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A122" s="7"/>
-      <c r="B122" s="7"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="8"/>
+      <c r="A122" s="6"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="7"/>
     </row>
     <row r="123" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A123" s="7"/>
-      <c r="B123" s="7"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="8"/>
+      <c r="A123" s="6"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="7"/>
     </row>
     <row r="124" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A124" s="7"/>
-      <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="8"/>
+      <c r="A124" s="6"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="7"/>
     </row>
     <row r="125" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A125" s="7"/>
-      <c r="B125" s="7"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="8"/>
+      <c r="A125" s="6"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
